--- a/report/Report_420013837.xlsx
+++ b/report/Report_420013837.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Code\02_VBA\18_Hana\Hana Code\hanaVBA\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7002905-5540-4C4F-A40D-D2A7F1A1F58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92564BE7-F051-483B-B792-8DC195149B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DBD59333-9A34-4681-9211-1B5B20A919F2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D43F4E7-EB9C-4673-9D82-27DAE97F006F}"/>
   </bookViews>
   <sheets>
     <sheet name="rp" sheetId="1" r:id="rId1"/>
@@ -884,14 +884,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -902,151 +898,41 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1059,18 +945,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{0A857CDB-8820-4CBC-953C-56577835AF66}"/>
-    <cellStyle name="쉼표 2" xfId="3" xr:uid="{023ADE2D-D3E0-44CF-87A9-6E18C737F8FA}"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{D0775751-F367-4175-A641-F0768A10564C}"/>
+    <cellStyle name="Normal_Sheet1" xfId="2" xr:uid="{407140E3-4E42-4500-A241-E2E3E419B133}"/>
+    <cellStyle name="쉼표 2" xfId="3" xr:uid="{F0CFEE6C-61DE-4960-A12A-C5966394C7F1}"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{437140DD-4FD8-43BD-8931-A320928FC3FF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1401,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750CA25-2E79-4D58-85AB-98FC869CC9D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99288D90-DB01-4135-98DA-C809AC6CC8DF}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q187"/>
   <sheetViews>
@@ -1585,17 +1465,17 @@
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14">
         <v>306274042930</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="9"/>
@@ -1670,7 +1550,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="22"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="7" t="s">
         <v>13</v>
       </c>
@@ -1691,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="23"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1746,14 +1626,14 @@
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="4"/>
       <c r="F16" s="9"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="20"/>
       <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1767,2262 +1647,2262 @@
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31" t="s">
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="34" t="s">
+      <c r="M17" s="26"/>
+      <c r="N17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="35"/>
-      <c r="P17" s="31" t="s">
+      <c r="O17" s="28"/>
+      <c r="P17" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="Q17" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="46" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="48"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="31" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="46" t="s">
+      <c r="J20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="41"/>
-      <c r="L20" s="54" t="s">
+      <c r="K20" s="29"/>
+      <c r="L20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="55" t="s">
+      <c r="M20" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="N20" s="56" t="s">
+      <c r="N20" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="O20" s="56" t="s">
+      <c r="O20" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
+      <c r="A22" s="22">
         <v>1</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="22">
         <v>2</v>
       </c>
-      <c r="C22" s="64">
+      <c r="C22" s="22">
         <v>3</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="22">
         <v>4</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="22">
         <v>5</v>
       </c>
-      <c r="F22" s="64">
+      <c r="F22" s="22">
         <v>6</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="22">
         <v>7</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="22">
         <v>8</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="22">
         <v>9</v>
       </c>
-      <c r="J22" s="64">
+      <c r="J22" s="22">
         <v>10</v>
       </c>
-      <c r="K22" s="64">
+      <c r="K22" s="22">
         <v>11</v>
       </c>
-      <c r="L22" s="64">
+      <c r="L22" s="22">
         <v>12</v>
       </c>
-      <c r="M22" s="64">
+      <c r="M22" s="22">
         <v>13</v>
       </c>
-      <c r="N22" s="65">
+      <c r="N22" s="43">
         <v>14</v>
       </c>
-      <c r="O22" s="65">
+      <c r="O22" s="43">
         <v>15</v>
       </c>
-      <c r="P22" s="64">
+      <c r="P22" s="22">
         <v>16</v>
       </c>
-      <c r="Q22" s="64">
+      <c r="Q22" s="22">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="66">
+      <c r="A23" s="48">
         <v>1</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="66">
+      <c r="D23" s="48">
         <v>85332100</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="48">
         <v>3</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="48">
         <v>4752</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="48">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="67" t="s">
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="68" t="s">
+      <c r="L23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="67" t="s">
+      <c r="M23" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66">
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48">
         <v>55597</v>
       </c>
-      <c r="Q23" s="66">
+      <c r="Q23" s="48">
         <v>50845</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66">
+      <c r="A24" s="48">
         <v>2</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="67" t="s">
+      <c r="C24" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="48">
         <v>85412900</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="48">
         <v>3</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="48">
         <v>4752</v>
       </c>
-      <c r="H24" s="66">
+      <c r="H24" s="48">
         <v>1.2540000000000001E-2</v>
       </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67" t="s">
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="68" t="s">
+      <c r="L24" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="67" t="s">
+      <c r="M24" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66">
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48">
         <v>56987</v>
       </c>
-      <c r="Q24" s="66">
+      <c r="Q24" s="48">
         <v>52235</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="66">
+      <c r="A25" s="48">
         <v>3</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="48">
         <v>85366932</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="48">
         <v>2</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="48">
         <v>3168</v>
       </c>
-      <c r="H25" s="66">
+      <c r="H25" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="67" t="s">
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="68" t="s">
+      <c r="L25" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="M25" s="67" t="s">
+      <c r="M25" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66">
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48">
         <v>38750</v>
       </c>
-      <c r="Q25" s="66">
+      <c r="Q25" s="48">
         <v>35582</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="66">
+      <c r="A26" s="48">
         <v>4</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="48">
         <v>35069190</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="48">
         <v>0.5</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="48">
         <v>792</v>
       </c>
-      <c r="H26" s="66">
+      <c r="H26" s="48">
         <v>21</v>
       </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67" t="s">
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L26" s="68" t="s">
+      <c r="L26" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="M26" s="69">
+      <c r="M26" s="51">
         <v>45146</v>
       </c>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66">
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48">
         <v>500000</v>
       </c>
-      <c r="Q26" s="66">
+      <c r="Q26" s="48">
         <v>499208</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66">
+      <c r="A27" s="48">
         <v>5</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D27" s="48">
         <v>85332100</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F27" s="48">
         <v>1</v>
       </c>
-      <c r="G27" s="66">
+      <c r="G27" s="48">
         <v>1584</v>
       </c>
-      <c r="H27" s="66">
+      <c r="H27" s="48">
         <v>5.5400000000000002E-4</v>
       </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="67" t="s">
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="69">
+      <c r="M27" s="51">
         <v>44900</v>
       </c>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66">
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48">
         <v>5000</v>
       </c>
-      <c r="Q27" s="66">
+      <c r="Q27" s="48">
         <v>3416</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66">
+      <c r="A28" s="48">
         <v>6</v>
       </c>
-      <c r="B28" s="66" t="s">
+      <c r="B28" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D28" s="48">
         <v>85332100</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="66">
+      <c r="F28" s="48">
         <v>1</v>
       </c>
-      <c r="G28" s="66">
+      <c r="G28" s="48">
         <v>1584</v>
       </c>
-      <c r="H28" s="66">
+      <c r="H28" s="48">
         <v>5.1999999999999995E-4</v>
       </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="67" t="s">
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L28" s="68" t="s">
+      <c r="L28" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="M28" s="67" t="s">
+      <c r="M28" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66">
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48">
         <v>5500</v>
       </c>
-      <c r="Q28" s="66">
+      <c r="Q28" s="48">
         <v>3916</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66">
+      <c r="A29" s="48">
         <v>7</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="48">
         <v>85332100</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="66">
+      <c r="F29" s="48">
         <v>6</v>
       </c>
-      <c r="G29" s="66">
+      <c r="G29" s="48">
         <v>9504</v>
       </c>
-      <c r="H29" s="66">
+      <c r="H29" s="48">
         <v>5.8900000000000001E-4</v>
       </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="67" t="s">
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="68" t="s">
+      <c r="L29" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="M29" s="67" t="s">
+      <c r="M29" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66">
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48">
         <v>10000</v>
       </c>
-      <c r="Q29" s="66">
+      <c r="Q29" s="48">
         <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66">
+      <c r="A30" s="48">
         <v>8</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="66">
+      <c r="D30" s="48">
         <v>85332100</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="66">
+      <c r="F30" s="48">
         <v>21</v>
       </c>
-      <c r="G30" s="66">
+      <c r="G30" s="48">
         <v>33264</v>
       </c>
-      <c r="H30" s="66">
+      <c r="H30" s="48">
         <v>6.2600000000000004E-4</v>
       </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="67" t="s">
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L30" s="68" t="s">
+      <c r="L30" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="M30" s="67" t="s">
+      <c r="M30" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66">
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48">
         <v>400000</v>
       </c>
-      <c r="Q30" s="66">
+      <c r="Q30" s="48">
         <v>366736</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="66">
+      <c r="A31" s="48">
         <v>9</v>
       </c>
-      <c r="B31" s="66" t="s">
+      <c r="B31" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="66">
+      <c r="D31" s="48">
         <v>85332100</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="66">
+      <c r="F31" s="48">
         <v>1</v>
       </c>
-      <c r="G31" s="66">
+      <c r="G31" s="48">
         <v>1584</v>
       </c>
-      <c r="H31" s="66">
+      <c r="H31" s="48">
         <v>1.48E-3</v>
       </c>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="67" t="s">
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L31" s="68" t="s">
+      <c r="L31" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M31" s="67" t="s">
+      <c r="M31" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66">
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48">
         <v>20000</v>
       </c>
-      <c r="Q31" s="66">
+      <c r="Q31" s="48">
         <v>18416</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66">
+      <c r="A32" s="48">
         <v>10</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B32" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D32" s="48">
         <v>85332100</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F32" s="48">
         <v>6</v>
       </c>
-      <c r="G32" s="66">
+      <c r="G32" s="48">
         <v>9504</v>
       </c>
-      <c r="H32" s="66">
+      <c r="H32" s="48">
         <v>4.6000000000000001E-4</v>
       </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="67" t="s">
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L32" s="68" t="s">
+      <c r="L32" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="67" t="s">
+      <c r="M32" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="66">
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48">
         <v>110000</v>
       </c>
-      <c r="Q32" s="66">
+      <c r="Q32" s="48">
         <v>100496</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66">
+      <c r="A33" s="48">
         <v>11</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B33" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="66">
+      <c r="D33" s="48">
         <v>85332100</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="66">
+      <c r="F33" s="48">
         <v>1</v>
       </c>
-      <c r="G33" s="66">
+      <c r="G33" s="48">
         <v>1584</v>
       </c>
-      <c r="H33" s="66">
+      <c r="H33" s="48">
         <v>1.5E-3</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="67" t="s">
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="68" t="s">
+      <c r="L33" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M33" s="67" t="s">
+      <c r="M33" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66">
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48">
         <v>19783</v>
       </c>
-      <c r="Q33" s="66">
+      <c r="Q33" s="48">
         <v>18199</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="66">
+      <c r="A34" s="48">
         <v>12</v>
       </c>
-      <c r="B34" s="66" t="s">
+      <c r="B34" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="48">
         <v>85332100</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="48">
         <v>1</v>
       </c>
-      <c r="G34" s="66">
+      <c r="G34" s="48">
         <v>1584</v>
       </c>
-      <c r="H34" s="66">
+      <c r="H34" s="48">
         <v>9.1299999999999997E-4</v>
       </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="67" t="s">
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L34" s="68" t="s">
+      <c r="L34" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="M34" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-      <c r="P34" s="66">
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48">
         <v>50000</v>
       </c>
-      <c r="Q34" s="66">
+      <c r="Q34" s="48">
         <v>48416</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66">
+      <c r="A35" s="48">
         <v>13</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B35" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="66">
+      <c r="D35" s="48">
         <v>85332100</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="66">
+      <c r="F35" s="48">
         <v>1</v>
       </c>
-      <c r="G35" s="66">
+      <c r="G35" s="48">
         <v>1584</v>
       </c>
-      <c r="H35" s="66">
+      <c r="H35" s="48">
         <v>9.1E-4</v>
       </c>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="67" t="s">
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="68" t="s">
+      <c r="L35" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M35" s="67" t="s">
+      <c r="M35" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-      <c r="P35" s="66">
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48">
         <v>20000</v>
       </c>
-      <c r="Q35" s="66">
+      <c r="Q35" s="48">
         <v>18416</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66">
+      <c r="A36" s="48">
         <v>14</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="66">
+      <c r="D36" s="48">
         <v>85332100</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="66">
+      <c r="F36" s="48">
         <v>1</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="48">
         <v>1584</v>
       </c>
-      <c r="H36" s="66">
+      <c r="H36" s="48">
         <v>6.5600000000000001E-4</v>
       </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="67" t="s">
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L36" s="68" t="s">
+      <c r="L36" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M36" s="67" t="s">
+      <c r="M36" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-      <c r="P36" s="66">
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48">
         <v>20000</v>
       </c>
-      <c r="Q36" s="66">
+      <c r="Q36" s="48">
         <v>18416</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="66">
+      <c r="A37" s="48">
         <v>15</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B37" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="48">
         <v>85332100</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="48">
         <v>2</v>
       </c>
-      <c r="G37" s="66">
+      <c r="G37" s="48">
         <v>3168</v>
       </c>
-      <c r="H37" s="66">
+      <c r="H37" s="48">
         <v>8.9599999999999999E-4</v>
       </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="67" t="s">
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="68" t="s">
+      <c r="L37" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M37" s="67" t="s">
+      <c r="M37" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="66">
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48">
         <v>40000</v>
       </c>
-      <c r="Q37" s="66">
+      <c r="Q37" s="48">
         <v>36832</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="66">
+      <c r="A38" s="48">
         <v>16</v>
       </c>
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="66">
+      <c r="D38" s="48">
         <v>85332100</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="48">
         <v>1</v>
       </c>
-      <c r="G38" s="66">
+      <c r="G38" s="48">
         <v>1584</v>
       </c>
-      <c r="H38" s="66">
+      <c r="H38" s="48">
         <v>7.0899999999999999E-4</v>
       </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="67" t="s">
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="68" t="s">
+      <c r="L38" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="M38" s="69">
+      <c r="M38" s="51">
         <v>44298</v>
       </c>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-      <c r="P38" s="66">
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48">
         <v>60000</v>
       </c>
-      <c r="Q38" s="66">
+      <c r="Q38" s="48">
         <v>58416</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="66">
+      <c r="A39" s="48">
         <v>17</v>
       </c>
-      <c r="B39" s="66" t="s">
+      <c r="B39" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="66">
+      <c r="D39" s="48">
         <v>85332100</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="48">
         <v>1</v>
       </c>
-      <c r="G39" s="66">
+      <c r="G39" s="48">
         <v>1584</v>
       </c>
-      <c r="H39" s="66">
+      <c r="H39" s="48">
         <v>1.034E-3</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="67" t="s">
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="68" t="s">
+      <c r="L39" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="M39" s="69">
+      <c r="M39" s="51">
         <v>44567</v>
       </c>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="66">
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48">
         <v>5000</v>
       </c>
-      <c r="Q39" s="66">
+      <c r="Q39" s="48">
         <v>3416</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="66">
+      <c r="A40" s="48">
         <v>18</v>
       </c>
-      <c r="B40" s="66" t="s">
+      <c r="B40" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="66">
+      <c r="D40" s="48">
         <v>85322400</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="48">
         <v>20</v>
       </c>
-      <c r="G40" s="66">
+      <c r="G40" s="48">
         <v>31680</v>
       </c>
-      <c r="H40" s="66">
+      <c r="H40" s="48">
         <v>1.805E-3</v>
       </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="67" t="s">
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L40" s="68" t="s">
+      <c r="L40" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="M40" s="67" t="s">
+      <c r="M40" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="66">
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48">
         <v>396000</v>
       </c>
-      <c r="Q40" s="66">
+      <c r="Q40" s="48">
         <v>364320</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66">
+      <c r="A41" s="48">
         <v>19</v>
       </c>
-      <c r="B41" s="66" t="s">
+      <c r="B41" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="66">
+      <c r="D41" s="48">
         <v>85322400</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="48">
         <v>2</v>
       </c>
-      <c r="G41" s="66">
+      <c r="G41" s="48">
         <v>3168</v>
       </c>
-      <c r="H41" s="66">
+      <c r="H41" s="48">
         <v>1.317E-3</v>
       </c>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="67" t="s">
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L41" s="68" t="s">
+      <c r="L41" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M41" s="67" t="s">
+      <c r="M41" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66">
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48">
         <v>40000</v>
       </c>
-      <c r="Q41" s="66">
+      <c r="Q41" s="48">
         <v>36832</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="66">
+      <c r="A42" s="48">
         <v>20</v>
       </c>
-      <c r="B42" s="66" t="s">
+      <c r="B42" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="66">
+      <c r="D42" s="48">
         <v>85322400</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F42" s="66">
+      <c r="F42" s="48">
         <v>2</v>
       </c>
-      <c r="G42" s="66">
+      <c r="G42" s="48">
         <v>3168</v>
       </c>
-      <c r="H42" s="66">
+      <c r="H42" s="48">
         <v>9.9000000000000008E-3</v>
       </c>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67" t="s">
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L42" s="68" t="s">
+      <c r="L42" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="M42" s="67" t="s">
+      <c r="M42" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66">
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48">
         <v>4000</v>
       </c>
-      <c r="Q42" s="66">
+      <c r="Q42" s="48">
         <v>832</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66">
+      <c r="A43" s="48">
         <v>21</v>
       </c>
-      <c r="B43" s="66" t="s">
+      <c r="B43" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="66">
+      <c r="D43" s="48">
         <v>85411000</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="66">
+      <c r="F43" s="48">
         <v>4</v>
       </c>
-      <c r="G43" s="66">
+      <c r="G43" s="48">
         <v>6336</v>
       </c>
-      <c r="H43" s="66">
+      <c r="H43" s="48">
         <v>3.3800000000000002E-3</v>
       </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="67" t="s">
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="68" t="s">
+      <c r="L43" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M43" s="67" t="s">
+      <c r="M43" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="66">
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48">
         <v>74990</v>
       </c>
-      <c r="Q43" s="66">
+      <c r="Q43" s="48">
         <v>68654</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="66">
+      <c r="A44" s="48">
         <v>22</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="66">
+      <c r="D44" s="48">
         <v>85411000</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="66">
+      <c r="F44" s="48">
         <v>1</v>
       </c>
-      <c r="G44" s="66">
+      <c r="G44" s="48">
         <v>1584</v>
       </c>
-      <c r="H44" s="66">
+      <c r="H44" s="48">
         <v>2.1270000000000001E-2</v>
       </c>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="67" t="s">
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L44" s="68" t="s">
+      <c r="L44" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M44" s="67" t="s">
+      <c r="M44" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66">
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48">
         <v>18985</v>
       </c>
-      <c r="Q44" s="66">
+      <c r="Q44" s="48">
         <v>17401</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="66">
+      <c r="A45" s="48">
         <v>23</v>
       </c>
-      <c r="B45" s="66" t="s">
+      <c r="B45" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F45" s="66">
+      <c r="F45" s="48">
         <v>1</v>
       </c>
-      <c r="G45" s="66">
+      <c r="G45" s="48">
         <v>1584</v>
       </c>
-      <c r="H45" s="66">
+      <c r="H45" s="48">
         <v>4.8077000000000002E-2</v>
       </c>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="67" t="s">
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="68" t="s">
+      <c r="L45" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="M45" s="67" t="s">
+      <c r="M45" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66">
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48">
         <v>3000</v>
       </c>
-      <c r="Q45" s="66">
+      <c r="Q45" s="48">
         <v>1416</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66">
+      <c r="A46" s="48">
         <v>24</v>
       </c>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="66">
+      <c r="D46" s="48">
         <v>85045020</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="66">
+      <c r="F46" s="48">
         <v>2</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="48">
         <v>3168</v>
       </c>
-      <c r="H46" s="66">
+      <c r="H46" s="48">
         <v>2.1225000000000001E-2</v>
       </c>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="67" t="s">
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L46" s="68" t="s">
+      <c r="L46" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M46" s="67" t="s">
+      <c r="M46" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66">
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48">
         <v>37600</v>
       </c>
-      <c r="Q46" s="66">
+      <c r="Q46" s="48">
         <v>34432</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="66">
+      <c r="A47" s="48">
         <v>25</v>
       </c>
-      <c r="B47" s="66" t="s">
+      <c r="B47" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="66">
+      <c r="D47" s="48">
         <v>85423100</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="66">
+      <c r="F47" s="48">
         <v>1.0018434343434299</v>
       </c>
-      <c r="G47" s="66">
+      <c r="G47" s="48">
         <v>1586.919999999993</v>
       </c>
-      <c r="H47" s="66">
+      <c r="H47" s="48">
         <v>7.9632999999999995E-2</v>
       </c>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="67" t="s">
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L47" s="68" t="s">
+      <c r="L47" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M47" s="67" t="s">
+      <c r="M47" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-      <c r="P47" s="66">
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48">
         <v>19200</v>
       </c>
-      <c r="Q47" s="66">
+      <c r="Q47" s="48">
         <v>17613</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="66">
+      <c r="A48" s="48">
         <v>26</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="66">
+      <c r="D48" s="48">
         <v>85423900</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="66">
+      <c r="F48" s="48">
         <v>1.0029494949494999</v>
       </c>
-      <c r="G48" s="66">
+      <c r="G48" s="48">
         <v>1588.672000000008</v>
       </c>
-      <c r="H48" s="66">
+      <c r="H48" s="48">
         <v>1.8787</v>
       </c>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="67" t="s">
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L48" s="68" t="s">
+      <c r="L48" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M48" s="67" t="s">
+      <c r="M48" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-      <c r="P48" s="66">
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48">
         <v>17496</v>
       </c>
-      <c r="Q48" s="66">
+      <c r="Q48" s="48">
         <v>15907</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="66">
+      <c r="A49" s="48">
         <v>27</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="66">
+      <c r="D49" s="48">
         <v>85423100</v>
       </c>
-      <c r="E49" s="66" t="s">
+      <c r="E49" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="66">
+      <c r="F49" s="48">
         <v>1.00063131313131</v>
       </c>
-      <c r="G49" s="66">
+      <c r="G49" s="48">
         <v>1584.999999999995</v>
       </c>
-      <c r="H49" s="66">
+      <c r="H49" s="48">
         <v>1.754813</v>
       </c>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="67" t="s">
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="L49" s="68" t="s">
+      <c r="L49" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M49" s="67" t="s">
+      <c r="M49" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-      <c r="P49" s="66">
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48">
         <v>6133</v>
       </c>
-      <c r="Q49" s="66">
+      <c r="Q49" s="48">
         <v>4548</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="66">
+      <c r="A50" s="48">
         <v>28</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="D50" s="66">
+      <c r="D50" s="48">
         <v>85423100</v>
       </c>
-      <c r="E50" s="66" t="s">
+      <c r="E50" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="66">
+      <c r="F50" s="48">
         <v>1</v>
       </c>
-      <c r="G50" s="66">
+      <c r="G50" s="48">
         <v>1584</v>
       </c>
-      <c r="H50" s="66">
+      <c r="H50" s="48">
         <v>0.27275700000000003</v>
       </c>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67" t="s">
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="L50" s="68" t="s">
+      <c r="L50" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M50" s="67" t="s">
+      <c r="M50" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-      <c r="P50" s="66">
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48">
         <v>17993</v>
       </c>
-      <c r="Q50" s="66">
+      <c r="Q50" s="48">
         <v>16409</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="66">
+      <c r="A51" s="48">
         <v>29</v>
       </c>
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="67" t="s">
+      <c r="C51" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="66">
+      <c r="D51" s="48">
         <v>85416000</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="66">
+      <c r="F51" s="48">
         <v>1</v>
       </c>
-      <c r="G51" s="66">
+      <c r="G51" s="48">
         <v>1584</v>
       </c>
-      <c r="H51" s="66">
+      <c r="H51" s="48">
         <v>3.8210000000000001E-2</v>
       </c>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="67" t="s">
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L51" s="68" t="s">
+      <c r="L51" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M51" s="67" t="s">
+      <c r="M51" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-      <c r="P51" s="66">
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48">
         <v>17731</v>
       </c>
-      <c r="Q51" s="66">
+      <c r="Q51" s="48">
         <v>16147</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66">
+      <c r="A52" s="48">
         <v>30</v>
       </c>
-      <c r="B52" s="66" t="s">
+      <c r="B52" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="66">
+      <c r="D52" s="48">
         <v>85414100</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="66">
+      <c r="F52" s="48">
         <v>1</v>
       </c>
-      <c r="G52" s="66">
+      <c r="G52" s="48">
         <v>1584</v>
       </c>
-      <c r="H52" s="66">
+      <c r="H52" s="48">
         <v>1.2522999999999999E-2</v>
       </c>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="67" t="s">
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L52" s="68" t="s">
+      <c r="L52" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M52" s="67" t="s">
+      <c r="M52" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="66">
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48">
         <v>16000</v>
       </c>
-      <c r="Q52" s="66">
+      <c r="Q52" s="48">
         <v>14416</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="66">
+      <c r="A53" s="48">
         <v>31</v>
       </c>
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="66">
+      <c r="D53" s="48">
         <v>85414900</v>
       </c>
-      <c r="E53" s="66" t="s">
+      <c r="E53" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="66">
+      <c r="F53" s="48">
         <v>1</v>
       </c>
-      <c r="G53" s="66">
+      <c r="G53" s="48">
         <v>1584</v>
       </c>
-      <c r="H53" s="66">
+      <c r="H53" s="48">
         <v>0.60355000000000003</v>
       </c>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="67" t="s">
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L53" s="68" t="s">
+      <c r="L53" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M53" s="67" t="s">
+      <c r="M53" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-      <c r="P53" s="66">
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48">
         <v>20208</v>
       </c>
-      <c r="Q53" s="66">
+      <c r="Q53" s="48">
         <v>18624</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66">
+      <c r="A54" s="48">
         <v>32</v>
       </c>
-      <c r="B54" s="66" t="s">
+      <c r="B54" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="66">
+      <c r="D54" s="48">
         <v>85318019</v>
       </c>
-      <c r="E54" s="66" t="s">
+      <c r="E54" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F54" s="66">
+      <c r="F54" s="48">
         <v>1</v>
       </c>
-      <c r="G54" s="66">
+      <c r="G54" s="48">
         <v>1584</v>
       </c>
-      <c r="H54" s="66">
+      <c r="H54" s="48">
         <v>6.9339999999999999E-2</v>
       </c>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="67" t="s">
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L54" s="68" t="s">
+      <c r="L54" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M54" s="67" t="s">
+      <c r="M54" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-      <c r="P54" s="66">
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48">
         <v>19657</v>
       </c>
-      <c r="Q54" s="66">
+      <c r="Q54" s="48">
         <v>18073</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="66">
+      <c r="A55" s="48">
         <v>33</v>
       </c>
-      <c r="B55" s="66" t="s">
+      <c r="B55" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="66">
+      <c r="D55" s="48">
         <v>85444297</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="E55" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F55" s="66">
+      <c r="F55" s="48">
         <v>1</v>
       </c>
-      <c r="G55" s="66">
+      <c r="G55" s="48">
         <v>1584</v>
       </c>
-      <c r="H55" s="66">
+      <c r="H55" s="48">
         <v>1228</v>
       </c>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="67" t="s">
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L55" s="68" t="s">
+      <c r="L55" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M55" s="67" t="s">
+      <c r="M55" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-      <c r="P55" s="66">
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48">
         <v>12860</v>
       </c>
-      <c r="Q55" s="66">
+      <c r="Q55" s="48">
         <v>11276</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="66">
+      <c r="A56" s="48">
         <v>34</v>
       </c>
-      <c r="B56" s="66" t="s">
+      <c r="B56" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="66">
+      <c r="D56" s="48">
         <v>85366932</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F56" s="66">
+      <c r="F56" s="48">
         <v>2</v>
       </c>
-      <c r="G56" s="66">
+      <c r="G56" s="48">
         <v>3168</v>
       </c>
-      <c r="H56" s="66">
+      <c r="H56" s="48">
         <v>4.6273000000000002E-2</v>
       </c>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="67" t="s">
+      <c r="I56" s="48"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="L56" s="68" t="s">
+      <c r="L56" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="M56" s="67" t="s">
+      <c r="M56" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-      <c r="P56" s="66">
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48">
         <v>39482</v>
       </c>
-      <c r="Q56" s="66">
+      <c r="Q56" s="48">
         <v>36314</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66">
+      <c r="A57" s="48">
         <v>35</v>
       </c>
-      <c r="B57" s="66" t="s">
+      <c r="B57" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="D57" s="66">
+      <c r="D57" s="48">
         <v>85340020</v>
       </c>
-      <c r="E57" s="66" t="s">
+      <c r="E57" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F57" s="66">
+      <c r="F57" s="48">
         <v>1</v>
       </c>
-      <c r="G57" s="66">
+      <c r="G57" s="48">
         <v>1584</v>
       </c>
-      <c r="H57" s="66">
+      <c r="H57" s="48">
         <v>0.52790000000000004</v>
       </c>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="67" t="s">
+      <c r="I57" s="48"/>
+      <c r="J57" s="48"/>
+      <c r="K57" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L57" s="68" t="s">
+      <c r="L57" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="M57" s="67" t="s">
+      <c r="M57" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-      <c r="P57" s="66">
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48">
         <v>18765</v>
       </c>
-      <c r="Q57" s="66">
+      <c r="Q57" s="48">
         <v>17181</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="66">
+      <c r="A58" s="48">
         <v>36</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D58" s="66">
+      <c r="D58" s="48">
         <v>35069100</v>
       </c>
-      <c r="E58" s="66" t="s">
+      <c r="E58" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F58" s="66">
+      <c r="F58" s="48">
         <v>8.32</v>
       </c>
-      <c r="G58" s="66">
+      <c r="G58" s="48">
         <v>13178.880000000001</v>
       </c>
-      <c r="H58" s="66">
+      <c r="H58" s="48">
         <v>792</v>
       </c>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="67" t="s">
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L58" s="68" t="s">
+      <c r="L58" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="67" t="s">
+      <c r="M58" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="N58" s="66"/>
-      <c r="O58" s="66"/>
-      <c r="P58" s="66">
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48">
         <v>300000</v>
       </c>
-      <c r="Q58" s="66">
+      <c r="Q58" s="48">
         <v>286821</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="66">
+      <c r="A59" s="48">
         <v>37</v>
       </c>
-      <c r="B59" s="66" t="s">
+      <c r="B59" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="66">
+      <c r="D59" s="48">
         <v>38140000</v>
       </c>
-      <c r="E59" s="66" t="s">
+      <c r="E59" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F59" s="66">
+      <c r="F59" s="48">
         <v>7.4545454545454497</v>
       </c>
-      <c r="G59" s="66">
+      <c r="G59" s="48">
         <v>11807.999999999993</v>
       </c>
-      <c r="H59" s="66">
+      <c r="H59" s="48">
         <v>726</v>
       </c>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="67" t="s">
+      <c r="I59" s="48"/>
+      <c r="J59" s="48"/>
+      <c r="K59" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L59" s="68" t="s">
+      <c r="L59" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="M59" s="67" t="s">
+      <c r="M59" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66">
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48">
         <v>42000</v>
       </c>
-      <c r="Q59" s="66">
+      <c r="Q59" s="48">
         <v>30192</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66">
+      <c r="A60" s="48">
         <v>38</v>
       </c>
-      <c r="B60" s="66" t="s">
+      <c r="B60" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="66">
+      <c r="D60" s="48">
         <v>48191000</v>
       </c>
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F60" s="66">
+      <c r="F60" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G60" s="66">
+      <c r="G60" s="48">
         <v>11.088000000000001</v>
       </c>
-      <c r="H60" s="66">
+      <c r="H60" s="48">
         <v>20715</v>
       </c>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="67" t="s">
+      <c r="I60" s="48"/>
+      <c r="J60" s="48"/>
+      <c r="K60" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L60" s="68" t="s">
+      <c r="L60" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="M60" s="67" t="s">
+      <c r="M60" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-      <c r="P60" s="66">
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48">
         <v>12</v>
       </c>
-      <c r="Q60" s="66">
+      <c r="Q60" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="66">
+      <c r="A61" s="48">
         <v>39</v>
       </c>
-      <c r="B61" s="66" t="s">
+      <c r="B61" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="66">
+      <c r="D61" s="48">
         <v>48239099</v>
       </c>
-      <c r="E61" s="66" t="s">
+      <c r="E61" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="F61" s="66">
+      <c r="F61" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G61" s="66">
+      <c r="G61" s="48">
         <v>11.088000000000001</v>
       </c>
-      <c r="H61" s="66">
+      <c r="H61" s="48">
         <v>53255</v>
       </c>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="67" t="s">
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L61" s="68" t="s">
+      <c r="L61" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="M61" s="67" t="s">
+      <c r="M61" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66">
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48">
         <v>166</v>
       </c>
-      <c r="Q61" s="66">
+      <c r="Q61" s="48">
         <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="66">
+      <c r="A62" s="48">
         <v>40</v>
       </c>
-      <c r="B62" s="66" t="s">
+      <c r="B62" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="66">
+      <c r="D62" s="48">
         <v>392329</v>
       </c>
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="F62" s="66">
+      <c r="F62" s="48">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G62" s="66">
+      <c r="G62" s="48">
         <v>11.088000000000001</v>
       </c>
-      <c r="H62" s="66">
+      <c r="H62" s="48">
         <v>257</v>
       </c>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67" t="s">
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L62" s="68" t="s">
+      <c r="L62" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="M62" s="67" t="s">
+      <c r="M62" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66">
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48">
         <v>3000</v>
       </c>
-      <c r="Q62" s="66">
+      <c r="Q62" s="48">
         <v>2989</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="66">
+      <c r="A63" s="48">
         <v>41</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="D63" s="66">
+      <c r="D63" s="48">
         <v>392329</v>
       </c>
-      <c r="E63" s="66" t="s">
+      <c r="E63" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="F63" s="66">
+      <c r="F63" s="48">
         <v>1</v>
       </c>
-      <c r="G63" s="66">
+      <c r="G63" s="48">
         <v>1584</v>
       </c>
-      <c r="H63" s="66">
+      <c r="H63" s="48">
         <v>273</v>
       </c>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="67" t="s">
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="L63" s="68" t="s">
+      <c r="L63" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="M63" s="67" t="s">
+      <c r="M63" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-      <c r="P63" s="66">
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48">
         <v>12600</v>
       </c>
-      <c r="Q63" s="66">
+      <c r="Q63" s="48">
         <v>11016</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="66">
+      <c r="A64" s="48">
         <v>42</v>
       </c>
-      <c r="B64" s="66">
+      <c r="B64" s="48">
         <v>150100045</v>
       </c>
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D64" s="66">
+      <c r="D64" s="48">
         <v>85332100</v>
       </c>
-      <c r="E64" s="66" t="s">
+      <c r="E64" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F64" s="66">
+      <c r="F64" s="48">
         <v>15</v>
       </c>
-      <c r="G64" s="66">
+      <c r="G64" s="48">
         <v>23760</v>
       </c>
-      <c r="H64" s="66">
+      <c r="H64" s="48">
         <v>7.5000000000000002E-4</v>
       </c>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="67" t="s">
+      <c r="I64" s="48"/>
+      <c r="J64" s="48"/>
+      <c r="K64" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L64" s="68" t="s">
+      <c r="L64" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="M64" s="69">
+      <c r="M64" s="51">
         <v>44693</v>
       </c>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-      <c r="P64" s="66">
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48">
         <v>300000</v>
       </c>
-      <c r="Q64" s="66">
+      <c r="Q64" s="48">
         <v>276240</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="66">
+      <c r="A65" s="48">
         <v>43</v>
       </c>
-      <c r="B65" s="66">
+      <c r="B65" s="48">
         <v>150200036</v>
       </c>
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D65" s="66">
+      <c r="D65" s="48">
         <v>85322400</v>
       </c>
-      <c r="E65" s="66" t="s">
+      <c r="E65" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F65" s="66">
+      <c r="F65" s="48">
         <v>1</v>
       </c>
-      <c r="G65" s="66">
+      <c r="G65" s="48">
         <v>1584</v>
       </c>
-      <c r="H65" s="66">
+      <c r="H65" s="48">
         <v>1.4430000000000001E-3</v>
       </c>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="67" t="s">
+      <c r="I65" s="48"/>
+      <c r="J65" s="48"/>
+      <c r="K65" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L65" s="68" t="s">
+      <c r="L65" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="M65" s="67" t="s">
+      <c r="M65" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-      <c r="P65" s="66">
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48">
         <v>80000</v>
       </c>
-      <c r="Q65" s="66">
+      <c r="Q65" s="48">
         <v>78416</v>
       </c>
     </row>
     <row r="66" spans="1:17" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="66">
+      <c r="A66" s="48">
         <v>44</v>
       </c>
-      <c r="B66" s="66">
+      <c r="B66" s="48">
         <v>150200041</v>
       </c>
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="D66" s="66">
+      <c r="D66" s="48">
         <v>85322400</v>
       </c>
-      <c r="E66" s="66" t="s">
+      <c r="E66" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="66">
+      <c r="F66" s="48">
         <v>6</v>
       </c>
-      <c r="G66" s="66">
+      <c r="G66" s="48">
         <v>9504</v>
       </c>
-      <c r="H66" s="66">
+      <c r="H66" s="48">
         <v>5.1450000000000003E-3</v>
       </c>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="67" t="s">
+      <c r="I66" s="48"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L66" s="68" t="s">
+      <c r="L66" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="M66" s="67" t="s">
+      <c r="M66" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66">
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48">
         <v>20000</v>
       </c>
-      <c r="Q66" s="66">
+      <c r="Q66" s="48">
         <v>10496</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="66">
+      <c r="A67" s="48">
         <v>45</v>
       </c>
-      <c r="B67" s="66">
+      <c r="B67" s="48">
         <v>150200042</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D67" s="66">
+      <c r="D67" s="48">
         <v>85322400</v>
       </c>
-      <c r="E67" s="66" t="s">
+      <c r="E67" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F67" s="66">
+      <c r="F67" s="48">
         <v>7</v>
       </c>
-      <c r="G67" s="66">
+      <c r="G67" s="48">
         <v>11088</v>
       </c>
-      <c r="H67" s="66">
+      <c r="H67" s="48">
         <v>3.1102999999999999E-2</v>
       </c>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="67" t="s">
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="L67" s="68" t="s">
+      <c r="L67" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="M67" s="67" t="s">
+      <c r="M67" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66">
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48">
         <v>24000</v>
       </c>
-      <c r="Q67" s="66">
+      <c r="Q67" s="48">
         <v>12912</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="66">
+      <c r="A68" s="48">
         <v>46</v>
       </c>
-      <c r="B68" s="66">
+      <c r="B68" s="48">
         <v>151000886</v>
       </c>
-      <c r="C68" s="67" t="s">
+      <c r="C68" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D68" s="66">
+      <c r="D68" s="48">
         <v>85423900</v>
       </c>
-      <c r="E68" s="66" t="s">
+      <c r="E68" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F68" s="66">
+      <c r="F68" s="48">
         <v>1</v>
       </c>
-      <c r="G68" s="66">
+      <c r="G68" s="48">
         <v>1584</v>
       </c>
-      <c r="H68" s="66">
+      <c r="H68" s="48">
         <v>0.43952999999999998</v>
       </c>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="67" t="s">
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="L68" s="68" t="s">
+      <c r="L68" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="M68" s="67" t="s">
+      <c r="M68" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66">
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48">
         <v>3000</v>
       </c>
-      <c r="Q68" s="66">
+      <c r="Q68" s="48">
         <v>1416</v>
       </c>
     </row>
@@ -4050,321 +3930,69 @@
     <row r="94" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="12:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L105" s="70"/>
-      <c r="M105" s="70"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-    </row>
-    <row r="106" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L106" s="70"/>
-      <c r="M106" s="70"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-    </row>
-    <row r="107" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L107" s="70"/>
-      <c r="M107" s="70"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-    </row>
-    <row r="108" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L108" s="70"/>
-      <c r="M108" s="70"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-    </row>
-    <row r="109" spans="12:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L109" s="70"/>
-      <c r="M109" s="70"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-    </row>
-    <row r="110" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L110" s="70"/>
-      <c r="M110" s="70"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-    </row>
-    <row r="111" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L111" s="70"/>
-      <c r="M111" s="70"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-    </row>
-    <row r="112" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L112" s="70"/>
-      <c r="M112" s="70"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-    </row>
-    <row r="113" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L113" s="70"/>
-      <c r="M113" s="70"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-    </row>
-    <row r="114" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L114" s="70"/>
-      <c r="M114" s="70"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-    </row>
-    <row r="115" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L115" s="70"/>
-      <c r="M115" s="70"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-    </row>
-    <row r="116" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L116" s="70"/>
-      <c r="M116" s="70"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-    </row>
-    <row r="117" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L117" s="70"/>
-      <c r="M117" s="70"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-    </row>
-    <row r="118" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L118" s="70"/>
-      <c r="M118" s="70"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-    </row>
-    <row r="119" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L119" s="70"/>
-      <c r="M119" s="70"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-    </row>
-    <row r="120" spans="12:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L120" s="70"/>
-      <c r="M120" s="70"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-    </row>
-    <row r="121" spans="12:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L121" s="70"/>
-      <c r="M121" s="70"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-    </row>
-    <row r="122" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L122" s="70"/>
-      <c r="M122" s="70"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-    </row>
-    <row r="123" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L123" s="70"/>
-      <c r="M123" s="70"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-    </row>
-    <row r="124" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L124" s="70"/>
-      <c r="M124" s="70"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-    </row>
-    <row r="125" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L125" s="70"/>
-      <c r="M125" s="70"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-    </row>
-    <row r="126" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L126" s="70"/>
-      <c r="M126" s="70"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-    </row>
-    <row r="127" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L127" s="70"/>
-      <c r="M127" s="70"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-    </row>
-    <row r="128" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L128" s="70"/>
-      <c r="M128" s="70"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-    </row>
-    <row r="129" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L129" s="70"/>
-      <c r="M129" s="70"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-    </row>
-    <row r="130" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L130" s="70"/>
-      <c r="M130" s="70"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-    </row>
-    <row r="131" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L131" s="70"/>
-      <c r="M131" s="70"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-    </row>
-    <row r="132" spans="12:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L132" s="70"/>
-      <c r="M132" s="70"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-    </row>
-    <row r="133" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L133" s="70"/>
-      <c r="M133" s="70"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-    </row>
-    <row r="134" spans="12:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L134" s="70"/>
-      <c r="M134" s="70"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-    </row>
-    <row r="135" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L135" s="70"/>
-      <c r="M135" s="70"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-    </row>
-    <row r="136" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L136" s="70"/>
-      <c r="M136" s="70"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-    </row>
-    <row r="137" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L137" s="70"/>
-      <c r="M137" s="70"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-    </row>
-    <row r="138" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L138" s="70"/>
-      <c r="M138" s="70"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-    </row>
-    <row r="139" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L139" s="70"/>
-      <c r="M139" s="71"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
-    </row>
-    <row r="140" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L140" s="70"/>
-      <c r="M140" s="70"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-    </row>
-    <row r="141" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L141" s="70"/>
-      <c r="M141" s="70"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-    </row>
-    <row r="142" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L142" s="70"/>
-      <c r="M142" s="70"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="6"/>
-    </row>
-    <row r="143" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L143" s="70"/>
-      <c r="M143" s="70"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-    </row>
-    <row r="144" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L144" s="70"/>
-      <c r="M144" s="70"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="6"/>
-    </row>
-    <row r="145" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L145" s="70"/>
-      <c r="M145" s="70"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6"/>
-    </row>
-    <row r="146" spans="12:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L146" s="70"/>
-      <c r="M146" s="70"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-    </row>
-    <row r="147" spans="12:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L147" s="70"/>
-      <c r="M147" s="70"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6"/>
-    </row>
-    <row r="148" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-    </row>
-    <row r="149" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
-    </row>
-    <row r="150" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-    </row>
-    <row r="151" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-    </row>
-    <row r="152" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-    </row>
-    <row r="153" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
-    </row>
-    <row r="154" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-    </row>
-    <row r="155" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-    </row>
-    <row r="156" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
-    </row>
-    <row r="157" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="97" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="57.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="57.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="57.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="57.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="57.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="14:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="14:15" ht="28.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="14:15" ht="43.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N157" s="6"/>
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N158" s="6"/>
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N159" s="6"/>
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N160" s="6"/>
       <c r="O160" s="6"/>
     </row>
@@ -4477,32 +4105,6 @@
       <c r="O187" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="K17:K21"/>
-    <mergeCell ref="L17:M19"/>
-    <mergeCell ref="N17:O19"/>
-    <mergeCell ref="P17:P21"/>
-    <mergeCell ref="Q17:Q21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:J18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>